--- a/src/main/java/com/internetBankings/testData/Testdata.xlsx
+++ b/src/main/java/com/internetBankings/testData/Testdata.xlsx
@@ -46,23 +46,31 @@
     <t>sygavAr</t>
   </si>
   <si>
-    <t>jYsebuv</t>
-  </si>
-  <si>
     <t>qaqAgaj</t>
   </si>
   <si>
     <t>jEnunUma</t>
+  </si>
+  <si>
+    <t>Dhana@01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,15 +114,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,7 +428,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" activeCellId="1" sqref="B7 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,8 +465,8 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,10 +482,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/java/com/internetBankings/testData/Testdata.xlsx
+++ b/src/main/java/com/internetBankings/testData/Testdata.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -25,41 +24,51 @@
     <t>Password</t>
   </si>
   <si>
-    <t xml:space="preserve">mngr238114 </t>
-  </si>
-  <si>
-    <t>mngr239667</t>
-  </si>
-  <si>
     <t>mngr239668</t>
   </si>
   <si>
-    <t>mngr239669</t>
-  </si>
-  <si>
-    <t>mngr239670</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yrAqebE</t>
-  </si>
-  <si>
-    <t>sygavAr</t>
-  </si>
-  <si>
-    <t>qaqAgaj</t>
-  </si>
-  <si>
-    <t>jEnunUma</t>
-  </si>
-  <si>
     <t>Dhana@01</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>mngr252799</t>
+  </si>
+  <si>
+    <t>uzAqydA</t>
+  </si>
+  <si>
+    <t>mngr252800</t>
+  </si>
+  <si>
+    <t>EjEbEza</t>
+  </si>
+  <si>
+    <t>mngr252801</t>
+  </si>
+  <si>
+    <t>pyhasAr</t>
+  </si>
+  <si>
+    <t>mngr252803</t>
+  </si>
+  <si>
+    <t>muqAvuq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +84,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +187,26 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <bgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -118,11 +238,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,64 +560,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="1" sqref="B7 B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="18">
         <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -490,6 +644,7 @@
     <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
